--- a/yong/연도더미미세먼지.xlsx
+++ b/yong/연도더미미세먼지.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>미세먼지</t>
   </si>
@@ -38,6 +38,144 @@
   </si>
   <si>
     <t>녹지면적 합계</t>
+  </si>
+  <si>
+    <t>측정소명</t>
+  </si>
+  <si>
+    <t>강남구(삼성2동)</t>
+  </si>
+  <si>
+    <t>강남대로</t>
+  </si>
+  <si>
+    <t>강동구(천호1동)</t>
+  </si>
+  <si>
+    <t>강변북로</t>
+  </si>
+  <si>
+    <t>강북구(번동)</t>
+  </si>
+  <si>
+    <t>강서구(화곡동)</t>
+  </si>
+  <si>
+    <t>공항대로</t>
+  </si>
+  <si>
+    <t>관악구(신림동)</t>
+  </si>
+  <si>
+    <t>관악산</t>
+  </si>
+  <si>
+    <t>광진구(구의동)</t>
+  </si>
+  <si>
+    <t>구로구(구로동)</t>
+  </si>
+  <si>
+    <t>궁동</t>
+  </si>
+  <si>
+    <t>금천구(시흥5동)</t>
+  </si>
+  <si>
+    <t>남산</t>
+  </si>
+  <si>
+    <t>노원구(상계동)</t>
+  </si>
+  <si>
+    <t>도봉구(쌍문동)</t>
+  </si>
+  <si>
+    <t>도산대로</t>
+  </si>
+  <si>
+    <t>동대문구(용두동)</t>
+  </si>
+  <si>
+    <t>동작구(사당동)</t>
+  </si>
+  <si>
+    <t>동작대로</t>
+  </si>
+  <si>
+    <t>마포구(대흥동)</t>
+  </si>
+  <si>
+    <t>북한산</t>
+  </si>
+  <si>
+    <t>서대문구(남가좌동)</t>
+  </si>
+  <si>
+    <t>서초구(반포동)</t>
+  </si>
+  <si>
+    <t>성동구(성수동)</t>
+  </si>
+  <si>
+    <t>성북구(길음동)</t>
+  </si>
+  <si>
+    <t>세곡</t>
+  </si>
+  <si>
+    <t>송파구(삼전동)</t>
+  </si>
+  <si>
+    <t>시흥대로</t>
+  </si>
+  <si>
+    <t>신촌로</t>
+  </si>
+  <si>
+    <t>양천구(신정동)</t>
+  </si>
+  <si>
+    <t>영등포구(당산동)</t>
+  </si>
+  <si>
+    <t>영등포로</t>
+  </si>
+  <si>
+    <t>용산구(한남동)</t>
+  </si>
+  <si>
+    <t>은평구(불광동)</t>
+  </si>
+  <si>
+    <t>정릉로</t>
+  </si>
+  <si>
+    <t>종로</t>
+  </si>
+  <si>
+    <t>종로구(효제동)</t>
+  </si>
+  <si>
+    <t>중구(서소문동)</t>
+  </si>
+  <si>
+    <t>중랑구(면목동,면목본동)</t>
+  </si>
+  <si>
+    <t>천호대로</t>
+  </si>
+  <si>
+    <t>청계천로</t>
+  </si>
+  <si>
+    <t>한강대로</t>
+  </si>
+  <si>
+    <t>홍릉로</t>
+  </si>
+  <si>
+    <t>화랑로</t>
   </si>
 </sst>
 </file>
@@ -102,8 +240,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -409,7 +550,7 @@
   <dimension ref="A1:O271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -422,6 +563,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1">
         <v>2015</v>
       </c>
@@ -466,8 +610,8 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -513,9 +657,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3">
         <v>0</v>
       </c>
@@ -560,9 +702,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4">
         <v>0</v>
       </c>
@@ -607,9 +747,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5">
         <v>0</v>
       </c>
@@ -654,9 +792,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6">
         <v>0</v>
       </c>
@@ -701,9 +837,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7">
         <v>0</v>
       </c>
@@ -748,8 +882,8 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -795,9 +929,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9">
         <v>0</v>
       </c>
@@ -842,9 +974,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10">
         <v>0</v>
       </c>
@@ -889,9 +1019,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11">
         <v>0</v>
       </c>
@@ -936,9 +1064,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12">
         <v>0</v>
       </c>
@@ -983,9 +1109,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13">
         <v>0</v>
       </c>
@@ -1030,8 +1154,8 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1077,9 +1201,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15">
         <v>0</v>
       </c>
@@ -1124,9 +1246,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16">
         <v>0</v>
       </c>
@@ -1171,9 +1291,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17">
         <v>0</v>
       </c>
@@ -1218,9 +1336,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18">
         <v>0</v>
       </c>
@@ -1265,9 +1381,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19">
         <v>0</v>
       </c>
@@ -1312,8 +1426,8 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1359,9 +1473,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21">
         <v>0</v>
       </c>
@@ -1406,9 +1518,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22">
         <v>0</v>
       </c>
@@ -1453,9 +1563,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23">
         <v>0</v>
       </c>
@@ -1500,9 +1608,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24">
         <v>0</v>
       </c>
@@ -1547,9 +1653,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25">
         <v>0</v>
       </c>
@@ -1594,8 +1698,8 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1641,9 +1745,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27">
         <v>0</v>
       </c>
@@ -1688,9 +1790,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28">
         <v>0</v>
       </c>
@@ -1735,9 +1835,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29">
         <v>0</v>
       </c>
@@ -1782,9 +1880,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30">
         <v>0</v>
       </c>
@@ -1829,9 +1925,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31">
         <v>0</v>
       </c>
@@ -1876,8 +1970,8 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1923,9 +2017,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33">
         <v>0</v>
       </c>
@@ -1970,9 +2062,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34">
         <v>0</v>
       </c>
@@ -2017,9 +2107,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35">
         <v>0</v>
       </c>
@@ -2064,9 +2152,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36">
         <v>0</v>
       </c>
@@ -2111,9 +2197,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37">
         <v>0</v>
       </c>
@@ -2158,8 +2242,8 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2205,9 +2289,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39">
         <v>0</v>
       </c>
@@ -2252,9 +2334,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40">
         <v>0</v>
       </c>
@@ -2299,9 +2379,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
+      <c r="A41" s="2"/>
       <c r="B41">
         <v>0</v>
       </c>
@@ -2346,9 +2424,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42">
         <v>0</v>
       </c>
@@ -2393,9 +2469,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
+      <c r="A43" s="2"/>
       <c r="B43">
         <v>0</v>
       </c>
@@ -2440,8 +2514,8 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2487,9 +2561,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
+      <c r="A45" s="2"/>
       <c r="B45">
         <v>0</v>
       </c>
@@ -2534,9 +2606,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46">
         <v>0</v>
       </c>
@@ -2581,9 +2651,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
+      <c r="A47" s="2"/>
       <c r="B47">
         <v>0</v>
       </c>
@@ -2628,9 +2696,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48">
         <v>0</v>
       </c>
@@ -2675,9 +2741,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49">
         <v>0</v>
       </c>
@@ -2722,8 +2786,8 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2766,9 +2830,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51">
         <v>0</v>
       </c>
@@ -2810,9 +2872,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
+      <c r="A52" s="2"/>
       <c r="B52">
         <v>0</v>
       </c>
@@ -2854,9 +2914,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="B53">
         <v>0</v>
       </c>
@@ -2898,9 +2956,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54">
         <v>0</v>
       </c>
@@ -2942,9 +2998,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
+      <c r="A55" s="2"/>
       <c r="B55">
         <v>0</v>
       </c>
@@ -2986,8 +3040,8 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3033,9 +3087,7 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
+      <c r="A57" s="2"/>
       <c r="B57">
         <v>0</v>
       </c>
@@ -3080,9 +3132,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
+      <c r="A58" s="2"/>
       <c r="B58">
         <v>0</v>
       </c>
@@ -3127,9 +3177,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
+      <c r="A59" s="2"/>
       <c r="B59">
         <v>0</v>
       </c>
@@ -3174,9 +3222,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
+      <c r="A60" s="2"/>
       <c r="B60">
         <v>0</v>
       </c>
@@ -3221,9 +3267,7 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
+      <c r="A61" s="2"/>
       <c r="B61">
         <v>0</v>
       </c>
@@ -3268,8 +3312,8 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3315,9 +3359,7 @@
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
+      <c r="A63" s="2"/>
       <c r="B63">
         <v>0</v>
       </c>
@@ -3362,9 +3404,7 @@
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
+      <c r="A64" s="2"/>
       <c r="B64">
         <v>0</v>
       </c>
@@ -3409,9 +3449,7 @@
       </c>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
+      <c r="A65" s="2"/>
       <c r="B65">
         <v>0</v>
       </c>
@@ -3456,9 +3494,7 @@
       </c>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66">
         <v>0</v>
       </c>
@@ -3503,9 +3539,7 @@
       </c>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
+      <c r="A67" s="2"/>
       <c r="B67">
         <v>0</v>
       </c>
@@ -3550,8 +3584,8 @@
       </c>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3594,9 +3628,7 @@
       </c>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69">
         <v>0</v>
       </c>
@@ -3638,9 +3670,7 @@
       </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
+      <c r="A70" s="2"/>
       <c r="B70">
         <v>0</v>
       </c>
@@ -3682,9 +3712,7 @@
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
+      <c r="A71" s="2"/>
       <c r="B71">
         <v>0</v>
       </c>
@@ -3726,9 +3754,7 @@
       </c>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
+      <c r="A72" s="2"/>
       <c r="B72">
         <v>0</v>
       </c>
@@ -3770,9 +3796,7 @@
       </c>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
+      <c r="A73" s="2"/>
       <c r="B73">
         <v>0</v>
       </c>
@@ -3814,8 +3838,8 @@
       </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3861,9 +3885,7 @@
       </c>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
+      <c r="A75" s="2"/>
       <c r="B75">
         <v>0</v>
       </c>
@@ -3908,9 +3930,7 @@
       </c>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76">
         <v>0</v>
       </c>
@@ -3955,9 +3975,7 @@
       </c>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
+      <c r="A77" s="2"/>
       <c r="B77">
         <v>0</v>
       </c>
@@ -4002,9 +4020,7 @@
       </c>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78">
         <v>0</v>
       </c>
@@ -4049,9 +4065,7 @@
       </c>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79">
         <v>0</v>
       </c>
@@ -4096,8 +4110,8 @@
       </c>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4140,9 +4154,7 @@
       </c>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
+      <c r="A81" s="2"/>
       <c r="B81">
         <v>0</v>
       </c>
@@ -4184,9 +4196,7 @@
       </c>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
+      <c r="A82" s="2"/>
       <c r="B82">
         <v>0</v>
       </c>
@@ -4228,9 +4238,7 @@
       </c>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
+      <c r="A83" s="2"/>
       <c r="B83">
         <v>0</v>
       </c>
@@ -4272,9 +4280,7 @@
       </c>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
+      <c r="A84" s="2"/>
       <c r="B84">
         <v>0</v>
       </c>
@@ -4316,9 +4322,7 @@
       </c>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
+      <c r="A85" s="2"/>
       <c r="B85">
         <v>0</v>
       </c>
@@ -4360,8 +4364,8 @@
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4407,9 +4411,7 @@
       </c>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
+      <c r="A87" s="2"/>
       <c r="B87">
         <v>0</v>
       </c>
@@ -4454,9 +4456,7 @@
       </c>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88">
         <v>0</v>
       </c>
@@ -4501,9 +4501,7 @@
       </c>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
+      <c r="A89" s="2"/>
       <c r="B89">
         <v>0</v>
       </c>
@@ -4548,9 +4546,7 @@
       </c>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
+      <c r="A90" s="2"/>
       <c r="B90">
         <v>0</v>
       </c>
@@ -4595,9 +4591,7 @@
       </c>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
+      <c r="A91" s="2"/>
       <c r="B91">
         <v>0</v>
       </c>
@@ -4642,8 +4636,8 @@
       </c>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4689,9 +4683,7 @@
       </c>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
+      <c r="A93" s="2"/>
       <c r="B93">
         <v>0</v>
       </c>
@@ -4736,9 +4728,7 @@
       </c>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
+      <c r="A94" s="2"/>
       <c r="B94">
         <v>0</v>
       </c>
@@ -4783,9 +4773,7 @@
       </c>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
+      <c r="A95" s="2"/>
       <c r="B95">
         <v>0</v>
       </c>
@@ -4830,9 +4818,7 @@
       </c>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
+      <c r="A96" s="2"/>
       <c r="B96">
         <v>0</v>
       </c>
@@ -4877,9 +4863,7 @@
       </c>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
+      <c r="A97" s="2"/>
       <c r="B97">
         <v>0</v>
       </c>
@@ -4924,8 +4908,8 @@
       </c>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4971,9 +4955,7 @@
       </c>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
+      <c r="A99" s="2"/>
       <c r="B99">
         <v>0</v>
       </c>
@@ -5018,9 +5000,7 @@
       </c>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="B100">
         <v>0</v>
       </c>
@@ -5065,9 +5045,7 @@
       </c>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
+      <c r="A101" s="2"/>
       <c r="B101">
         <v>0</v>
       </c>
@@ -5112,9 +5090,7 @@
       </c>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
+      <c r="A102" s="2"/>
       <c r="B102">
         <v>0</v>
       </c>
@@ -5159,9 +5135,7 @@
       </c>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
+      <c r="A103" s="2"/>
       <c r="B103">
         <v>0</v>
       </c>
@@ -5206,8 +5180,8 @@
       </c>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5253,9 +5227,7 @@
       </c>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
+      <c r="A105" s="2"/>
       <c r="B105">
         <v>0</v>
       </c>
@@ -5300,9 +5272,7 @@
       </c>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
+      <c r="A106" s="2"/>
       <c r="B106">
         <v>0</v>
       </c>
@@ -5347,9 +5317,7 @@
       </c>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
+      <c r="A107" s="2"/>
       <c r="B107">
         <v>0</v>
       </c>
@@ -5394,9 +5362,7 @@
       </c>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
+      <c r="A108" s="2"/>
       <c r="B108">
         <v>0</v>
       </c>
@@ -5441,9 +5407,7 @@
       </c>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
+      <c r="A109" s="2"/>
       <c r="B109">
         <v>0</v>
       </c>
@@ -5488,8 +5452,8 @@
       </c>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -5535,9 +5499,7 @@
       </c>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
+      <c r="A111" s="2"/>
       <c r="B111">
         <v>0</v>
       </c>
@@ -5582,9 +5544,7 @@
       </c>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
+      <c r="A112" s="2"/>
       <c r="B112">
         <v>0</v>
       </c>
@@ -5629,9 +5589,7 @@
       </c>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
+      <c r="A113" s="2"/>
       <c r="B113">
         <v>0</v>
       </c>
@@ -5676,9 +5634,7 @@
       </c>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
+      <c r="A114" s="2"/>
       <c r="B114">
         <v>0</v>
       </c>
@@ -5723,9 +5679,7 @@
       </c>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
+      <c r="A115" s="2"/>
       <c r="B115">
         <v>0</v>
       </c>
@@ -5770,8 +5724,8 @@
       </c>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -5817,9 +5771,7 @@
       </c>
     </row>
     <row r="117" spans="1:15">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
+      <c r="A117" s="2"/>
       <c r="B117">
         <v>0</v>
       </c>
@@ -5864,9 +5816,7 @@
       </c>
     </row>
     <row r="118" spans="1:15">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
+      <c r="A118" s="2"/>
       <c r="B118">
         <v>0</v>
       </c>
@@ -5911,9 +5861,7 @@
       </c>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
+      <c r="A119" s="2"/>
       <c r="B119">
         <v>0</v>
       </c>
@@ -5958,9 +5906,7 @@
       </c>
     </row>
     <row r="120" spans="1:15">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
+      <c r="A120" s="2"/>
       <c r="B120">
         <v>0</v>
       </c>
@@ -6005,9 +5951,7 @@
       </c>
     </row>
     <row r="121" spans="1:15">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
+      <c r="A121" s="2"/>
       <c r="B121">
         <v>0</v>
       </c>
@@ -6052,8 +5996,8 @@
       </c>
     </row>
     <row r="122" spans="1:15">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -6099,9 +6043,7 @@
       </c>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
+      <c r="A123" s="2"/>
       <c r="B123">
         <v>0</v>
       </c>
@@ -6146,9 +6088,7 @@
       </c>
     </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
+      <c r="A124" s="2"/>
       <c r="B124">
         <v>0</v>
       </c>
@@ -6193,9 +6133,7 @@
       </c>
     </row>
     <row r="125" spans="1:15">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
+      <c r="A125" s="2"/>
       <c r="B125">
         <v>0</v>
       </c>
@@ -6240,9 +6178,7 @@
       </c>
     </row>
     <row r="126" spans="1:15">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
+      <c r="A126" s="2"/>
       <c r="B126">
         <v>0</v>
       </c>
@@ -6287,9 +6223,7 @@
       </c>
     </row>
     <row r="127" spans="1:15">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
+      <c r="A127" s="2"/>
       <c r="B127">
         <v>0</v>
       </c>
@@ -6334,8 +6268,8 @@
       </c>
     </row>
     <row r="128" spans="1:15">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -6378,9 +6312,7 @@
       </c>
     </row>
     <row r="129" spans="1:15">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
+      <c r="A129" s="2"/>
       <c r="B129">
         <v>0</v>
       </c>
@@ -6422,9 +6354,7 @@
       </c>
     </row>
     <row r="130" spans="1:15">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
+      <c r="A130" s="2"/>
       <c r="B130">
         <v>0</v>
       </c>
@@ -6466,9 +6396,7 @@
       </c>
     </row>
     <row r="131" spans="1:15">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
+      <c r="A131" s="2"/>
       <c r="B131">
         <v>0</v>
       </c>
@@ -6510,9 +6438,7 @@
       </c>
     </row>
     <row r="132" spans="1:15">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
+      <c r="A132" s="2"/>
       <c r="B132">
         <v>0</v>
       </c>
@@ -6554,9 +6480,7 @@
       </c>
     </row>
     <row r="133" spans="1:15">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
+      <c r="A133" s="2"/>
       <c r="B133">
         <v>0</v>
       </c>
@@ -6598,8 +6522,8 @@
       </c>
     </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -6645,9 +6569,7 @@
       </c>
     </row>
     <row r="135" spans="1:15">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
+      <c r="A135" s="2"/>
       <c r="B135">
         <v>0</v>
       </c>
@@ -6692,9 +6614,7 @@
       </c>
     </row>
     <row r="136" spans="1:15">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
+      <c r="A136" s="2"/>
       <c r="B136">
         <v>0</v>
       </c>
@@ -6739,9 +6659,7 @@
       </c>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
+      <c r="A137" s="2"/>
       <c r="B137">
         <v>0</v>
       </c>
@@ -6786,9 +6704,7 @@
       </c>
     </row>
     <row r="138" spans="1:15">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
+      <c r="A138" s="2"/>
       <c r="B138">
         <v>0</v>
       </c>
@@ -6833,9 +6749,7 @@
       </c>
     </row>
     <row r="139" spans="1:15">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
+      <c r="A139" s="2"/>
       <c r="B139">
         <v>0</v>
       </c>
@@ -6880,8 +6794,8 @@
       </c>
     </row>
     <row r="140" spans="1:15">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -6927,9 +6841,7 @@
       </c>
     </row>
     <row r="141" spans="1:15">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
+      <c r="A141" s="2"/>
       <c r="B141">
         <v>0</v>
       </c>
@@ -6974,9 +6886,7 @@
       </c>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
+      <c r="A142" s="2"/>
       <c r="B142">
         <v>0</v>
       </c>
@@ -7021,9 +6931,7 @@
       </c>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
+      <c r="A143" s="2"/>
       <c r="B143">
         <v>0</v>
       </c>
@@ -7068,9 +6976,7 @@
       </c>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
+      <c r="A144" s="2"/>
       <c r="B144">
         <v>0</v>
       </c>
@@ -7115,9 +7021,7 @@
       </c>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
+      <c r="A145" s="2"/>
       <c r="B145">
         <v>0</v>
       </c>
@@ -7162,8 +7066,8 @@
       </c>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -7209,9 +7113,7 @@
       </c>
     </row>
     <row r="147" spans="1:15">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
+      <c r="A147" s="2"/>
       <c r="B147">
         <v>0</v>
       </c>
@@ -7256,9 +7158,7 @@
       </c>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
+      <c r="A148" s="2"/>
       <c r="B148">
         <v>0</v>
       </c>
@@ -7303,9 +7203,7 @@
       </c>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
+      <c r="A149" s="2"/>
       <c r="B149">
         <v>0</v>
       </c>
@@ -7350,9 +7248,7 @@
       </c>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
+      <c r="A150" s="2"/>
       <c r="B150">
         <v>0</v>
       </c>
@@ -7397,9 +7293,7 @@
       </c>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
+      <c r="A151" s="2"/>
       <c r="B151">
         <v>0</v>
       </c>
@@ -7444,8 +7338,8 @@
       </c>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -7491,9 +7385,7 @@
       </c>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
+      <c r="A153" s="2"/>
       <c r="B153">
         <v>0</v>
       </c>
@@ -7538,9 +7430,7 @@
       </c>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
+      <c r="A154" s="2"/>
       <c r="B154">
         <v>0</v>
       </c>
@@ -7585,9 +7475,7 @@
       </c>
     </row>
     <row r="155" spans="1:15">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
+      <c r="A155" s="2"/>
       <c r="B155">
         <v>0</v>
       </c>
@@ -7632,9 +7520,7 @@
       </c>
     </row>
     <row r="156" spans="1:15">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
+      <c r="A156" s="2"/>
       <c r="B156">
         <v>0</v>
       </c>
@@ -7679,9 +7565,7 @@
       </c>
     </row>
     <row r="157" spans="1:15">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
+      <c r="A157" s="2"/>
       <c r="B157">
         <v>0</v>
       </c>
@@ -7726,8 +7610,8 @@
       </c>
     </row>
     <row r="158" spans="1:15">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -7770,9 +7654,7 @@
       </c>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
+      <c r="A159" s="2"/>
       <c r="B159">
         <v>0</v>
       </c>
@@ -7814,9 +7696,7 @@
       </c>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
+      <c r="A160" s="2"/>
       <c r="B160">
         <v>0</v>
       </c>
@@ -7858,9 +7738,7 @@
       </c>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
+      <c r="A161" s="2"/>
       <c r="B161">
         <v>0</v>
       </c>
@@ -7902,9 +7780,7 @@
       </c>
     </row>
     <row r="162" spans="1:15">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
+      <c r="A162" s="2"/>
       <c r="B162">
         <v>0</v>
       </c>
@@ -7946,9 +7822,7 @@
       </c>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
+      <c r="A163" s="2"/>
       <c r="B163">
         <v>0</v>
       </c>
@@ -7990,8 +7864,8 @@
       </c>
     </row>
     <row r="164" spans="1:15">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -8037,9 +7911,7 @@
       </c>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
+      <c r="A165" s="2"/>
       <c r="B165">
         <v>0</v>
       </c>
@@ -8084,9 +7956,7 @@
       </c>
     </row>
     <row r="166" spans="1:15">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
+      <c r="A166" s="2"/>
       <c r="B166">
         <v>0</v>
       </c>
@@ -8131,9 +8001,7 @@
       </c>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
+      <c r="A167" s="2"/>
       <c r="B167">
         <v>0</v>
       </c>
@@ -8178,9 +8046,7 @@
       </c>
     </row>
     <row r="168" spans="1:15">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
+      <c r="A168" s="2"/>
       <c r="B168">
         <v>0</v>
       </c>
@@ -8225,9 +8091,7 @@
       </c>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
+      <c r="A169" s="2"/>
       <c r="B169">
         <v>0</v>
       </c>
@@ -8272,8 +8136,8 @@
       </c>
     </row>
     <row r="170" spans="1:15">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -8316,9 +8180,7 @@
       </c>
     </row>
     <row r="171" spans="1:15">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
+      <c r="A171" s="2"/>
       <c r="B171">
         <v>0</v>
       </c>
@@ -8360,9 +8222,7 @@
       </c>
     </row>
     <row r="172" spans="1:15">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
+      <c r="A172" s="2"/>
       <c r="B172">
         <v>0</v>
       </c>
@@ -8404,9 +8264,7 @@
       </c>
     </row>
     <row r="173" spans="1:15">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
+      <c r="A173" s="2"/>
       <c r="B173">
         <v>0</v>
       </c>
@@ -8448,9 +8306,7 @@
       </c>
     </row>
     <row r="174" spans="1:15">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
+      <c r="A174" s="2"/>
       <c r="B174">
         <v>0</v>
       </c>
@@ -8495,9 +8351,7 @@
       </c>
     </row>
     <row r="175" spans="1:15">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
+      <c r="A175" s="2"/>
       <c r="B175">
         <v>0</v>
       </c>
@@ -8542,8 +8396,8 @@
       </c>
     </row>
     <row r="176" spans="1:15">
-      <c r="A176" s="1">
-        <v>174</v>
+      <c r="A176" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -8589,9 +8443,7 @@
       </c>
     </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
+      <c r="A177" s="2"/>
       <c r="B177">
         <v>0</v>
       </c>
@@ -8636,9 +8488,7 @@
       </c>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
+      <c r="A178" s="2"/>
       <c r="B178">
         <v>0</v>
       </c>
@@ -8683,9 +8533,7 @@
       </c>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
+      <c r="A179" s="2"/>
       <c r="B179">
         <v>0</v>
       </c>
@@ -8730,9 +8578,7 @@
       </c>
     </row>
     <row r="180" spans="1:15">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
+      <c r="A180" s="2"/>
       <c r="B180">
         <v>0</v>
       </c>
@@ -8777,9 +8623,7 @@
       </c>
     </row>
     <row r="181" spans="1:15">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
+      <c r="A181" s="2"/>
       <c r="B181">
         <v>0</v>
       </c>
@@ -8824,8 +8668,8 @@
       </c>
     </row>
     <row r="182" spans="1:15">
-      <c r="A182" s="1">
-        <v>180</v>
+      <c r="A182" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -8871,9 +8715,7 @@
       </c>
     </row>
     <row r="183" spans="1:15">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
+      <c r="A183" s="2"/>
       <c r="B183">
         <v>0</v>
       </c>
@@ -8918,9 +8760,7 @@
       </c>
     </row>
     <row r="184" spans="1:15">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
+      <c r="A184" s="2"/>
       <c r="B184">
         <v>0</v>
       </c>
@@ -8965,9 +8805,7 @@
       </c>
     </row>
     <row r="185" spans="1:15">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
+      <c r="A185" s="2"/>
       <c r="B185">
         <v>0</v>
       </c>
@@ -9012,9 +8850,7 @@
       </c>
     </row>
     <row r="186" spans="1:15">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
+      <c r="A186" s="2"/>
       <c r="B186">
         <v>0</v>
       </c>
@@ -9059,9 +8895,7 @@
       </c>
     </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
+      <c r="A187" s="2"/>
       <c r="B187">
         <v>0</v>
       </c>
@@ -9106,8 +8940,8 @@
       </c>
     </row>
     <row r="188" spans="1:15">
-      <c r="A188" s="1">
-        <v>186</v>
+      <c r="A188" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -9153,9 +8987,7 @@
       </c>
     </row>
     <row r="189" spans="1:15">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
+      <c r="A189" s="2"/>
       <c r="B189">
         <v>0</v>
       </c>
@@ -9200,9 +9032,7 @@
       </c>
     </row>
     <row r="190" spans="1:15">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
+      <c r="A190" s="2"/>
       <c r="B190">
         <v>0</v>
       </c>
@@ -9247,9 +9077,7 @@
       </c>
     </row>
     <row r="191" spans="1:15">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
+      <c r="A191" s="2"/>
       <c r="B191">
         <v>0</v>
       </c>
@@ -9294,9 +9122,7 @@
       </c>
     </row>
     <row r="192" spans="1:15">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
+      <c r="A192" s="2"/>
       <c r="B192">
         <v>0</v>
       </c>
@@ -9341,9 +9167,7 @@
       </c>
     </row>
     <row r="193" spans="1:15">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
+      <c r="A193" s="2"/>
       <c r="B193">
         <v>0</v>
       </c>
@@ -9388,8 +9212,8 @@
       </c>
     </row>
     <row r="194" spans="1:15">
-      <c r="A194" s="1">
-        <v>192</v>
+      <c r="A194" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -9435,9 +9259,7 @@
       </c>
     </row>
     <row r="195" spans="1:15">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
+      <c r="A195" s="2"/>
       <c r="B195">
         <v>0</v>
       </c>
@@ -9482,9 +9304,7 @@
       </c>
     </row>
     <row r="196" spans="1:15">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
+      <c r="A196" s="2"/>
       <c r="B196">
         <v>0</v>
       </c>
@@ -9529,9 +9349,7 @@
       </c>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
+      <c r="A197" s="2"/>
       <c r="B197">
         <v>0</v>
       </c>
@@ -9576,9 +9394,7 @@
       </c>
     </row>
     <row r="198" spans="1:15">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
+      <c r="A198" s="2"/>
       <c r="B198">
         <v>0</v>
       </c>
@@ -9623,9 +9439,7 @@
       </c>
     </row>
     <row r="199" spans="1:15">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
+      <c r="A199" s="2"/>
       <c r="B199">
         <v>0</v>
       </c>
@@ -9670,8 +9484,8 @@
       </c>
     </row>
     <row r="200" spans="1:15">
-      <c r="A200" s="1">
-        <v>198</v>
+      <c r="A200" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -9717,9 +9531,7 @@
       </c>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
+      <c r="A201" s="2"/>
       <c r="B201">
         <v>0</v>
       </c>
@@ -9764,9 +9576,7 @@
       </c>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
+      <c r="A202" s="2"/>
       <c r="B202">
         <v>0</v>
       </c>
@@ -9811,9 +9621,7 @@
       </c>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
+      <c r="A203" s="2"/>
       <c r="B203">
         <v>0</v>
       </c>
@@ -9858,9 +9666,7 @@
       </c>
     </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
+      <c r="A204" s="2"/>
       <c r="B204">
         <v>0</v>
       </c>
@@ -9905,9 +9711,7 @@
       </c>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
+      <c r="A205" s="2"/>
       <c r="B205">
         <v>0</v>
       </c>
@@ -9952,8 +9756,8 @@
       </c>
     </row>
     <row r="206" spans="1:15">
-      <c r="A206" s="1">
-        <v>204</v>
+      <c r="A206" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -9999,9 +9803,7 @@
       </c>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
+      <c r="A207" s="2"/>
       <c r="B207">
         <v>0</v>
       </c>
@@ -10046,9 +9848,7 @@
       </c>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
+      <c r="A208" s="2"/>
       <c r="B208">
         <v>0</v>
       </c>
@@ -10093,9 +9893,7 @@
       </c>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
+      <c r="A209" s="2"/>
       <c r="B209">
         <v>0</v>
       </c>
@@ -10140,9 +9938,7 @@
       </c>
     </row>
     <row r="210" spans="1:15">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
+      <c r="A210" s="2"/>
       <c r="B210">
         <v>0</v>
       </c>
@@ -10187,9 +9983,7 @@
       </c>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
+      <c r="A211" s="2"/>
       <c r="B211">
         <v>0</v>
       </c>
@@ -10234,8 +10028,8 @@
       </c>
     </row>
     <row r="212" spans="1:15">
-      <c r="A212" s="1">
-        <v>210</v>
+      <c r="A212" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -10281,9 +10075,7 @@
       </c>
     </row>
     <row r="213" spans="1:15">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
+      <c r="A213" s="2"/>
       <c r="B213">
         <v>0</v>
       </c>
@@ -10328,9 +10120,7 @@
       </c>
     </row>
     <row r="214" spans="1:15">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
+      <c r="A214" s="2"/>
       <c r="B214">
         <v>0</v>
       </c>
@@ -10375,9 +10165,7 @@
       </c>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
+      <c r="A215" s="2"/>
       <c r="B215">
         <v>0</v>
       </c>
@@ -10422,9 +10210,7 @@
       </c>
     </row>
     <row r="216" spans="1:15">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
+      <c r="A216" s="2"/>
       <c r="B216">
         <v>0</v>
       </c>
@@ -10469,9 +10255,7 @@
       </c>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
+      <c r="A217" s="2"/>
       <c r="B217">
         <v>0</v>
       </c>
@@ -10516,8 +10300,8 @@
       </c>
     </row>
     <row r="218" spans="1:15">
-      <c r="A218" s="1">
-        <v>216</v>
+      <c r="A218" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -10563,9 +10347,7 @@
       </c>
     </row>
     <row r="219" spans="1:15">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
+      <c r="A219" s="2"/>
       <c r="B219">
         <v>0</v>
       </c>
@@ -10610,9 +10392,7 @@
       </c>
     </row>
     <row r="220" spans="1:15">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
+      <c r="A220" s="2"/>
       <c r="B220">
         <v>0</v>
       </c>
@@ -10657,9 +10437,7 @@
       </c>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
+      <c r="A221" s="2"/>
       <c r="B221">
         <v>0</v>
       </c>
@@ -10704,9 +10482,7 @@
       </c>
     </row>
     <row r="222" spans="1:15">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
+      <c r="A222" s="2"/>
       <c r="B222">
         <v>0</v>
       </c>
@@ -10751,9 +10527,7 @@
       </c>
     </row>
     <row r="223" spans="1:15">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
+      <c r="A223" s="2"/>
       <c r="B223">
         <v>0</v>
       </c>
@@ -10798,8 +10572,8 @@
       </c>
     </row>
     <row r="224" spans="1:15">
-      <c r="A224" s="1">
-        <v>222</v>
+      <c r="A224" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -10845,9 +10619,7 @@
       </c>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
+      <c r="A225" s="2"/>
       <c r="B225">
         <v>0</v>
       </c>
@@ -10892,9 +10664,7 @@
       </c>
     </row>
     <row r="226" spans="1:15">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
+      <c r="A226" s="2"/>
       <c r="B226">
         <v>0</v>
       </c>
@@ -10939,9 +10709,7 @@
       </c>
     </row>
     <row r="227" spans="1:15">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
+      <c r="A227" s="2"/>
       <c r="B227">
         <v>0</v>
       </c>
@@ -10986,9 +10754,7 @@
       </c>
     </row>
     <row r="228" spans="1:15">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
+      <c r="A228" s="2"/>
       <c r="B228">
         <v>0</v>
       </c>
@@ -11033,9 +10799,7 @@
       </c>
     </row>
     <row r="229" spans="1:15">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
+      <c r="A229" s="2"/>
       <c r="B229">
         <v>0</v>
       </c>
@@ -11080,8 +10844,8 @@
       </c>
     </row>
     <row r="230" spans="1:15">
-      <c r="A230" s="1">
-        <v>228</v>
+      <c r="A230" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -11127,9 +10891,7 @@
       </c>
     </row>
     <row r="231" spans="1:15">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
+      <c r="A231" s="2"/>
       <c r="B231">
         <v>0</v>
       </c>
@@ -11174,9 +10936,7 @@
       </c>
     </row>
     <row r="232" spans="1:15">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
+      <c r="A232" s="2"/>
       <c r="B232">
         <v>0</v>
       </c>
@@ -11221,9 +10981,7 @@
       </c>
     </row>
     <row r="233" spans="1:15">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
+      <c r="A233" s="2"/>
       <c r="B233">
         <v>0</v>
       </c>
@@ -11268,9 +11026,7 @@
       </c>
     </row>
     <row r="234" spans="1:15">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
+      <c r="A234" s="2"/>
       <c r="B234">
         <v>0</v>
       </c>
@@ -11315,9 +11071,7 @@
       </c>
     </row>
     <row r="235" spans="1:15">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
+      <c r="A235" s="2"/>
       <c r="B235">
         <v>0</v>
       </c>
@@ -11362,8 +11116,8 @@
       </c>
     </row>
     <row r="236" spans="1:15">
-      <c r="A236" s="1">
-        <v>234</v>
+      <c r="A236" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -11409,9 +11163,7 @@
       </c>
     </row>
     <row r="237" spans="1:15">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
+      <c r="A237" s="2"/>
       <c r="B237">
         <v>0</v>
       </c>
@@ -11456,9 +11208,7 @@
       </c>
     </row>
     <row r="238" spans="1:15">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
+      <c r="A238" s="2"/>
       <c r="B238">
         <v>0</v>
       </c>
@@ -11503,9 +11253,7 @@
       </c>
     </row>
     <row r="239" spans="1:15">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
+      <c r="A239" s="2"/>
       <c r="B239">
         <v>0</v>
       </c>
@@ -11550,9 +11298,7 @@
       </c>
     </row>
     <row r="240" spans="1:15">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
+      <c r="A240" s="2"/>
       <c r="B240">
         <v>0</v>
       </c>
@@ -11597,9 +11343,7 @@
       </c>
     </row>
     <row r="241" spans="1:15">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
+      <c r="A241" s="2"/>
       <c r="B241">
         <v>0</v>
       </c>
@@ -11644,8 +11388,8 @@
       </c>
     </row>
     <row r="242" spans="1:15">
-      <c r="A242" s="1">
-        <v>240</v>
+      <c r="A242" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -11691,9 +11435,7 @@
       </c>
     </row>
     <row r="243" spans="1:15">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
+      <c r="A243" s="2"/>
       <c r="B243">
         <v>0</v>
       </c>
@@ -11738,9 +11480,7 @@
       </c>
     </row>
     <row r="244" spans="1:15">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
+      <c r="A244" s="2"/>
       <c r="B244">
         <v>0</v>
       </c>
@@ -11785,9 +11525,7 @@
       </c>
     </row>
     <row r="245" spans="1:15">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
+      <c r="A245" s="2"/>
       <c r="B245">
         <v>0</v>
       </c>
@@ -11832,9 +11570,7 @@
       </c>
     </row>
     <row r="246" spans="1:15">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
+      <c r="A246" s="2"/>
       <c r="B246">
         <v>0</v>
       </c>
@@ -11879,9 +11615,7 @@
       </c>
     </row>
     <row r="247" spans="1:15">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
+      <c r="A247" s="2"/>
       <c r="B247">
         <v>0</v>
       </c>
@@ -11926,8 +11660,8 @@
       </c>
     </row>
     <row r="248" spans="1:15">
-      <c r="A248" s="1">
-        <v>246</v>
+      <c r="A248" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -11973,9 +11707,7 @@
       </c>
     </row>
     <row r="249" spans="1:15">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
+      <c r="A249" s="2"/>
       <c r="B249">
         <v>0</v>
       </c>
@@ -12020,9 +11752,7 @@
       </c>
     </row>
     <row r="250" spans="1:15">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
+      <c r="A250" s="2"/>
       <c r="B250">
         <v>0</v>
       </c>
@@ -12067,9 +11797,7 @@
       </c>
     </row>
     <row r="251" spans="1:15">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
+      <c r="A251" s="2"/>
       <c r="B251">
         <v>0</v>
       </c>
@@ -12114,9 +11842,7 @@
       </c>
     </row>
     <row r="252" spans="1:15">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
+      <c r="A252" s="2"/>
       <c r="B252">
         <v>0</v>
       </c>
@@ -12161,9 +11887,7 @@
       </c>
     </row>
     <row r="253" spans="1:15">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
+      <c r="A253" s="2"/>
       <c r="B253">
         <v>0</v>
       </c>
@@ -12208,8 +11932,8 @@
       </c>
     </row>
     <row r="254" spans="1:15">
-      <c r="A254" s="1">
-        <v>252</v>
+      <c r="A254" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -12255,9 +11979,7 @@
       </c>
     </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
+      <c r="A255" s="2"/>
       <c r="B255">
         <v>0</v>
       </c>
@@ -12302,9 +12024,7 @@
       </c>
     </row>
     <row r="256" spans="1:15">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
+      <c r="A256" s="2"/>
       <c r="B256">
         <v>0</v>
       </c>
@@ -12349,9 +12069,7 @@
       </c>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
+      <c r="A257" s="2"/>
       <c r="B257">
         <v>0</v>
       </c>
@@ -12396,9 +12114,7 @@
       </c>
     </row>
     <row r="258" spans="1:15">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
+      <c r="A258" s="2"/>
       <c r="B258">
         <v>0</v>
       </c>
@@ -12443,9 +12159,7 @@
       </c>
     </row>
     <row r="259" spans="1:15">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
+      <c r="A259" s="2"/>
       <c r="B259">
         <v>0</v>
       </c>
@@ -12490,8 +12204,8 @@
       </c>
     </row>
     <row r="260" spans="1:15">
-      <c r="A260" s="1">
-        <v>258</v>
+      <c r="A260" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -12534,9 +12248,7 @@
       </c>
     </row>
     <row r="261" spans="1:15">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
+      <c r="A261" s="2"/>
       <c r="B261">
         <v>0</v>
       </c>
@@ -12578,9 +12290,7 @@
       </c>
     </row>
     <row r="262" spans="1:15">
-      <c r="A262" s="1">
-        <v>260</v>
-      </c>
+      <c r="A262" s="2"/>
       <c r="B262">
         <v>0</v>
       </c>
@@ -12622,9 +12332,7 @@
       </c>
     </row>
     <row r="263" spans="1:15">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
+      <c r="A263" s="2"/>
       <c r="B263">
         <v>0</v>
       </c>
@@ -12666,9 +12374,7 @@
       </c>
     </row>
     <row r="264" spans="1:15">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
+      <c r="A264" s="2"/>
       <c r="B264">
         <v>0</v>
       </c>
@@ -12710,9 +12416,7 @@
       </c>
     </row>
     <row r="265" spans="1:15">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
+      <c r="A265" s="2"/>
       <c r="B265">
         <v>0</v>
       </c>
@@ -12754,8 +12458,8 @@
       </c>
     </row>
     <row r="266" spans="1:15">
-      <c r="A266" s="1">
-        <v>264</v>
+      <c r="A266" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -12801,9 +12505,7 @@
       </c>
     </row>
     <row r="267" spans="1:15">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
+      <c r="A267" s="2"/>
       <c r="B267">
         <v>0</v>
       </c>
@@ -12848,9 +12550,7 @@
       </c>
     </row>
     <row r="268" spans="1:15">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
+      <c r="A268" s="2"/>
       <c r="B268">
         <v>0</v>
       </c>
@@ -12895,9 +12595,7 @@
       </c>
     </row>
     <row r="269" spans="1:15">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
+      <c r="A269" s="2"/>
       <c r="B269">
         <v>0</v>
       </c>
@@ -12942,9 +12640,7 @@
       </c>
     </row>
     <row r="270" spans="1:15">
-      <c r="A270" s="1">
-        <v>268</v>
-      </c>
+      <c r="A270" s="2"/>
       <c r="B270">
         <v>0</v>
       </c>
@@ -12989,9 +12685,7 @@
       </c>
     </row>
     <row r="271" spans="1:15">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
+      <c r="A271" s="2"/>
       <c r="B271">
         <v>0</v>
       </c>
@@ -13036,6 +12730,53 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="A254:A259"/>
+    <mergeCell ref="A260:A265"/>
+    <mergeCell ref="A266:A271"/>
+    <mergeCell ref="A218:A223"/>
+    <mergeCell ref="A224:A229"/>
+    <mergeCell ref="A230:A235"/>
+    <mergeCell ref="A236:A241"/>
+    <mergeCell ref="A242:A247"/>
+    <mergeCell ref="A248:A253"/>
+    <mergeCell ref="A182:A187"/>
+    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="A194:A199"/>
+    <mergeCell ref="A200:A205"/>
+    <mergeCell ref="A206:A211"/>
+    <mergeCell ref="A212:A217"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="A152:A157"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="A170:A175"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="A122:A127"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="A134:A139"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A37"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
